--- a/exports/semaine_42.xlsx
+++ b/exports/semaine_42.xlsx
@@ -16,32 +16,31 @@
     <t/>
   </si>
   <si>
-    <t>LUNDI 14/10</t>
-  </si>
-  <si>
-    <t>MARDI 15/10</t>
-  </si>
-  <si>
-    <t>MERCREDI 16/10</t>
-  </si>
-  <si>
-    <t>JEUDI 17/10</t>
-  </si>
-  <si>
-    <t>VENDREDI 18/10</t>
+    <t>Lundi 14/10</t>
+  </si>
+  <si>
+    <t>Mardi 15/10</t>
+  </si>
+  <si>
+    <t>Mercredi 16/10</t>
+  </si>
+  <si>
+    <t>Jeudi 17/10</t>
+  </si>
+  <si>
+    <t>Vendredi 18/10</t>
   </si>
   <si>
     <t>Matin</t>
   </si>
   <si>
-    <t>06h ee</t>
+    <t>piscine 12h</t>
   </si>
   <si>
     <t>Après-midi</t>
   </si>
   <si>
-    <t xml:space="preserve">13h ras
-17h fin</t>
+    <t>17h tennis</t>
   </si>
 </sst>
 </file>
@@ -77,8 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,64 +430,64 @@
     <col min="2" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="120" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="120" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="120" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="120" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" ht="120" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="120" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
